--- a/hardware/V3.4.3/20170905_emontx_v3_4_3.xlsx
+++ b/hardware/V3.4.3/20170905_emontx_v3_4_3.xlsx
@@ -31,6 +31,7 @@
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5</t>
     </r>
@@ -41,6 +42,7 @@
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -50,6 +52,7 @@
         <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Sep 2017</t>
     </r>
@@ -1096,7 +1099,7 @@
     <t xml:space="preserve">https://octopart.com/click/track?country=GB&amp;ak=68b25f31&amp;sig=0276277&amp;sid=11744&amp;ppid=22002466&amp;vpid=132487411&amp;ct=offers</t>
   </si>
   <si>
-    <t xml:space="preserve">Changes V3.4.2 (Sep 17)</t>
+    <t xml:space="preserve">Changes V3.4.2 &gt; V3.4.3 (Sep 17)</t>
   </si>
   <si>
     <t xml:space="preserve">- Same PCB design as V3.4.2 (no changes to component positions or footprints)</t>
@@ -1117,23 +1120,7 @@
     <t xml:space="preserve">- Changed CT4 jack plug socket to blue colour to indicate low power high accuracy channel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Live BOM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://octopart.com/bom-tool/xiwE7CiN</t>
-    </r>
+    <t xml:space="preserve">Live BOM: https://octopart.com/bom-tool/xiwE7CiN</t>
   </si>
 </sst>
 </file>
@@ -1148,6 +1135,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1169,6 +1157,7 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1176,12 +1165,14 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1189,12 +1180,14 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1252,7 +1245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1270,6 +1263,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1293,45 +1290,44 @@
   <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.719387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1632653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.2959183673469"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="27.4132653061224"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="104.112244897959"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="108.836734693878"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="105.637755102041"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="29.219387755102"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="24.7755102040816"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="29.5"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="46.8673469387755"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.530612244898"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="27.8265306122449"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="25.3265306122449"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="110.780612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="29.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="103"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="107.586734693878"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="104.34693877551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="46.3010204081633"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="109.479591836735"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,7 +1345,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4362,13 +4358,13 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="5" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" display="https://octopart.com/bom-tool/xiwE7CiN"/>
+    <hyperlink ref="B52" r:id="rId1" display="Live BOM: https://octopart.com/bom-tool/xiwE7CiN"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
